--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/3.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/3.xlsx
@@ -479,13 +479,13 @@
         <v>-0.06279675651508307</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.442668260394693</v>
+        <v>-2.499900685510223</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.01928773934488904</v>
+        <v>-0.06989008607960273</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1748825962169679</v>
+        <v>0.1949889184768716</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06642298213164839</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.638826451432322</v>
+        <v>-2.697523304783033</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.07837734563205499</v>
+        <v>-0.1204530115158619</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2278151797047719</v>
+        <v>0.2494779132295842</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.07255955885005907</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.924084077217655</v>
+        <v>-2.985919303939774</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1557569743540342</v>
+        <v>-0.217343262876654</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2365506474326786</v>
+        <v>0.264034592695944</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07766203537391871</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.135324565034371</v>
+        <v>-3.202329822046398</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2485532508679184</v>
+        <v>-0.3042978869788125</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2470104319559485</v>
+        <v>0.2729014647520325</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07659310806197094</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.206517969995169</v>
+        <v>-3.25226273673143</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3124551756627194</v>
+        <v>-0.3568873591652529</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2851936096293928</v>
+        <v>0.3044326633232968</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.0652700127710267</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.986985139046137</v>
+        <v>-3.034817774552398</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.356790995991253</v>
+        <v>-0.4149140504422373</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2768027132509405</v>
+        <v>0.3022455112831156</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.04419696588412803</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.617071004853737</v>
+        <v>-2.678328052531857</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.4617918144970429</v>
+        <v>-0.5214041180007543</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2722254624859418</v>
+        <v>0.2870829118590287</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.01807819160596535</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.197122482633986</v>
+        <v>-2.248475294087427</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4599463137101343</v>
+        <v>-0.5243198340382988</v>
       </c>
       <c r="G9" t="n">
-        <v>0.2779254902328493</v>
+        <v>0.2863514277654834</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.009005995982929341</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.806675692139136</v>
+        <v>-1.870676170180074</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.5136089212433926</v>
+        <v>-0.5955263794319161</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2925434917190272</v>
+        <v>0.301039511560025</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.03701152392845577</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.294375478049183</v>
+        <v>-1.3652447523338</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.663893131288716</v>
+        <v>-0.7330307885375156</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3141230025026578</v>
+        <v>0.3140660606271123</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.06851125079439326</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.7161584727989746</v>
+        <v>-0.8134093560382213</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.8388798949841235</v>
+        <v>-0.8982980120917439</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3674965205139162</v>
+        <v>0.3612402144443724</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1069284956028331</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2039487816906576</v>
+        <v>-0.3082005955258115</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.141047067734315</v>
+        <v>-1.199980448875754</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4054782115508151</v>
+        <v>0.3948665820260907</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1556539580471163</v>
       </c>
       <c r="E14" t="n">
-        <v>0.3976727944568172</v>
+        <v>0.2892131220236645</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.578549018127016</v>
+        <v>-1.630478548576366</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4941308715827004</v>
+        <v>0.4932212616220643</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2158261046616548</v>
       </c>
       <c r="E15" t="n">
-        <v>1.009691373059653</v>
+        <v>0.9064353120224987</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.97334091174041</v>
+        <v>-2.029997347884076</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5959371048655822</v>
+        <v>0.5777565860375869</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2854000618860913</v>
       </c>
       <c r="E16" t="n">
-        <v>1.515395089874881</v>
+        <v>1.394306001455368</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.35172989507649</v>
+        <v>-2.41824165583379</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7251615812476383</v>
+        <v>0.6981959530566456</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3634699284879345</v>
       </c>
       <c r="E17" t="n">
-        <v>2.049495282010192</v>
+        <v>1.933322175512769</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.713878763497393</v>
+        <v>-2.774274382801877</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8429787018954249</v>
+        <v>0.8121585467444331</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4502795260954268</v>
       </c>
       <c r="E18" t="n">
-        <v>2.464630755698262</v>
+        <v>2.339028658629751</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.069560348899615</v>
+        <v>-3.114237820481422</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9895894309440219</v>
+        <v>0.9465676538973061</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5458793610975626</v>
       </c>
       <c r="E19" t="n">
-        <v>2.918623949277777</v>
+        <v>2.783278951298631</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.346295673978314</v>
+        <v>-3.385882687891167</v>
       </c>
       <c r="G19" t="n">
-        <v>1.171050047874518</v>
+        <v>1.123048046789713</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.647590433006162</v>
       </c>
       <c r="E20" t="n">
-        <v>3.222169407425786</v>
+        <v>3.092741984359094</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.612491641912788</v>
+        <v>-3.65824735900973</v>
       </c>
       <c r="G20" t="n">
-        <v>1.317952786541297</v>
+        <v>1.263497372894676</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7511133942772358</v>
       </c>
       <c r="E21" t="n">
-        <v>3.577194701211145</v>
+        <v>3.430083175667367</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.822661184454822</v>
+        <v>-3.88365031330826</v>
       </c>
       <c r="G21" t="n">
-        <v>1.435761146900538</v>
+        <v>1.382054737924553</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.8498344944766324</v>
       </c>
       <c r="E22" t="n">
-        <v>3.90261605990524</v>
+        <v>3.747414407889736</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.004087490255182</v>
+        <v>-4.050544030435761</v>
       </c>
       <c r="G22" t="n">
-        <v>1.507493309606883</v>
+        <v>1.451967680709625</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9382689083877793</v>
       </c>
       <c r="E23" t="n">
-        <v>4.083692684187827</v>
+        <v>3.946506565566046</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.130118841462422</v>
+        <v>-4.166411256858139</v>
       </c>
       <c r="G23" t="n">
-        <v>1.588463196584406</v>
+        <v>1.534201969333876</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.010241290290769</v>
       </c>
       <c r="E24" t="n">
-        <v>4.244290673947329</v>
+        <v>4.106000758968821</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.178498995002772</v>
+        <v>-4.231135188728122</v>
       </c>
       <c r="G24" t="n">
-        <v>1.642617840324301</v>
+        <v>1.585310952756135</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.062064158372597</v>
       </c>
       <c r="E25" t="n">
-        <v>4.321293610261854</v>
+        <v>4.204308717025886</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.212810855163172</v>
+        <v>-4.263643159472204</v>
       </c>
       <c r="G25" t="n">
-        <v>1.646561430217846</v>
+        <v>1.601790515558221</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.090931041643473</v>
       </c>
       <c r="E26" t="n">
-        <v>4.343095048355303</v>
+        <v>4.234067417214787</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.141378002315464</v>
+        <v>-4.17947576717559</v>
       </c>
       <c r="G26" t="n">
-        <v>1.599644244864585</v>
+        <v>1.55744301484496</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.098193561945718</v>
       </c>
       <c r="E27" t="n">
-        <v>4.296018717760134</v>
+        <v>4.194411051017616</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.060417605650531</v>
+        <v>-4.111196618204245</v>
       </c>
       <c r="G27" t="n">
-        <v>1.568431336777139</v>
+        <v>1.530957742475876</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.086680874882925</v>
       </c>
       <c r="E28" t="n">
-        <v>4.240973444684785</v>
+        <v>4.146825163638719</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.892972720368713</v>
+        <v>-3.944812457860472</v>
       </c>
       <c r="G28" t="n">
-        <v>1.485163334104525</v>
+        <v>1.445124435307536</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.061929450636515</v>
       </c>
       <c r="E29" t="n">
-        <v>4.06232634042547</v>
+        <v>3.992809070673033</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.716666803223169</v>
+        <v>-3.776027978455244</v>
       </c>
       <c r="G29" t="n">
-        <v>1.385534032525188</v>
+        <v>1.3406609144992</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.028160378064813</v>
       </c>
       <c r="E30" t="n">
-        <v>3.947112485523773</v>
+        <v>3.89214021485297</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.560224110330393</v>
+        <v>-3.613918838921651</v>
       </c>
       <c r="G30" t="n">
-        <v>1.295914820657121</v>
+        <v>1.251767346532315</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.989238298705676</v>
       </c>
       <c r="E31" t="n">
-        <v>3.785028166807726</v>
+        <v>3.73516168431083</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.410070574589206</v>
+        <v>-3.465567002524645</v>
       </c>
       <c r="G31" t="n">
-        <v>1.205177211951419</v>
+        <v>1.154639107332705</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.9460438245692021</v>
       </c>
       <c r="E32" t="n">
-        <v>3.603606971175684</v>
+        <v>3.573930033679873</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.236290540640934</v>
+        <v>-3.278049376089014</v>
       </c>
       <c r="G32" t="n">
-        <v>1.083563966267269</v>
+        <v>1.037938923474463</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8993901632224263</v>
       </c>
       <c r="E33" t="n">
-        <v>3.426510437988913</v>
+        <v>3.393983486619649</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.105467311599333</v>
+        <v>-3.135863322779916</v>
       </c>
       <c r="G33" t="n">
-        <v>1.02874354059792</v>
+        <v>0.983958025457387</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.8485723471841919</v>
       </c>
       <c r="E34" t="n">
-        <v>3.202823770221246</v>
+        <v>3.197433272669611</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.078368819032068</v>
+        <v>-3.117241139404421</v>
       </c>
       <c r="G34" t="n">
-        <v>0.931187507307674</v>
+        <v>0.887800718238231</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7938653395121021</v>
       </c>
       <c r="E35" t="n">
-        <v>2.88755558595133</v>
+        <v>2.895743535645146</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.972109439071914</v>
+        <v>-3.000029938714361</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8826540487177779</v>
+        <v>0.8389110079141533</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.7347442866427745</v>
       </c>
       <c r="E36" t="n">
-        <v>2.612900099378131</v>
+        <v>2.609610611029314</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.917181699867883</v>
+        <v>-2.943119454202876</v>
       </c>
       <c r="G36" t="n">
-        <v>0.811520505728706</v>
+        <v>0.7712436190928987</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.6729084234648725</v>
       </c>
       <c r="E37" t="n">
-        <v>2.329490164451844</v>
+        <v>2.348301424055112</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.862869370934171</v>
+        <v>-2.876220780701486</v>
       </c>
       <c r="G37" t="n">
-        <v>0.749649507828359</v>
+        <v>0.7216122043386393</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.609160588854144</v>
       </c>
       <c r="E38" t="n">
-        <v>2.025169420767562</v>
+        <v>2.039854584465921</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.791007993971781</v>
+        <v>-2.801009323394506</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6749665879302882</v>
+        <v>0.646216780972205</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.5457033508740126</v>
       </c>
       <c r="E39" t="n">
-        <v>1.730536096166459</v>
+        <v>1.75266166493609</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.671057743063177</v>
+        <v>-2.67850252827872</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6368958339598438</v>
+        <v>0.6211959368383027</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4831393792493983</v>
       </c>
       <c r="E40" t="n">
-        <v>1.469196248182348</v>
+        <v>1.513664932887154</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.556709696679389</v>
+        <v>-2.55932245273807</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5684575397465895</v>
+        <v>0.5484052392660494</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.4229844469086402</v>
       </c>
       <c r="E41" t="n">
-        <v>1.226952369179231</v>
+        <v>1.269724478002401</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.447898152656328</v>
+        <v>-2.445938768118328</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4985533572500628</v>
+        <v>0.4854070842395209</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.364775887549968</v>
       </c>
       <c r="E42" t="n">
-        <v>1.0040147060822</v>
+        <v>1.054494408777277</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.330635850283087</v>
+        <v>-2.327284309890405</v>
       </c>
       <c r="G42" t="n">
-        <v>0.4297631914468995</v>
+        <v>0.4172856204619937</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.3092158628370375</v>
       </c>
       <c r="E43" t="n">
-        <v>0.7919441809258022</v>
+        <v>0.8509213635099682</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.233972636400431</v>
+        <v>-2.223142729686115</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3621717251263722</v>
+        <v>0.3613059166084633</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.2551594578975038</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6229596749321203</v>
+        <v>0.6896561317729206</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.174706364294265</v>
+        <v>-2.160699392934132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.270382881795215</v>
+        <v>0.2716107822396692</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.2029445649683978</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4439431785058047</v>
+        <v>0.5109666861189686</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.064318698357067</v>
+        <v>-2.055884730559933</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2329603891771341</v>
+        <v>0.2395627266442233</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.1515626096995367</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2763968198816679</v>
+        <v>0.3418843569031958</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.989579566607496</v>
+        <v>-1.982980879260634</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2128569870134123</v>
+        <v>0.2151083811695935</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.1016640994091575</v>
       </c>
       <c r="E47" t="n">
-        <v>0.07819383149272115</v>
+        <v>0.166628944359061</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.940304403587419</v>
+        <v>-1.925328690318968</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1393610862132502</v>
+        <v>0.1450348330945214</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.05298682537162561</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.03376995635861243</v>
+        <v>0.04272196312409431</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.872214330843846</v>
+        <v>-1.872927564336255</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1199395265079827</v>
+        <v>0.1323791362425248</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.005757831767422798</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.1651626041556681</v>
+        <v>-0.0900256093013246</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.798162151721048</v>
+        <v>-1.799647750653547</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07213025177117732</v>
+        <v>0.08070657425717502</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.04093620259082516</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.27309081908373</v>
+        <v>-0.196155044981387</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.76964595245751</v>
+        <v>-1.776589941177872</v>
       </c>
       <c r="G50" t="n">
-        <v>0.02560289925818981</v>
+        <v>0.04458644453618472</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.08679130442963699</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3911576079550619</v>
+        <v>-0.3104403092972654</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.722765268306522</v>
+        <v>-1.723388708841341</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0203306656019185</v>
+        <v>0.04213648383963992</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.1320805906212162</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.4393041538008672</v>
+        <v>-0.3642883429380691</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.725638642949431</v>
+        <v>-1.717100281713797</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.04231561783470104</v>
+        <v>-0.02129822556607032</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.1760817103847133</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.5526652076752003</v>
+        <v>-0.4649601188543148</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.719567762987432</v>
+        <v>-1.710186954003344</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.04959833771215363</v>
+        <v>-0.02468991728125123</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.2185444063678475</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.5618445300227434</v>
+        <v>-0.4973688063282152</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.69687715560662</v>
+        <v>-1.696018647329166</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.08303781913823556</v>
+        <v>-0.05912077136106016</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.2585585811040818</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6906295319294361</v>
+        <v>-0.6183104298905464</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.683745483076988</v>
+        <v>-1.67545825011299</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.114805545500227</v>
+        <v>-0.08461175098023514</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.2957574538698861</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7699597849008692</v>
+        <v>-0.7018485414599784</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.640679904587545</v>
+        <v>-1.637323254026545</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1342913473214945</v>
+        <v>-0.1046947124706843</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3291963988612132</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8969255668862898</v>
+        <v>-0.8320570902553072</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.685605584344805</v>
+        <v>-1.677722784701989</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.1308835950773136</v>
+        <v>-0.1054933587764113</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.3587849746975808</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.969730864939452</v>
+        <v>-0.9016254616909248</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.64669822281827</v>
+        <v>-1.647943643839815</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1783614388974827</v>
+        <v>-0.1487794045275815</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.384308920852258</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.091111962977147</v>
+        <v>-1.020286490135257</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.660262069582812</v>
+        <v>-1.658921745435358</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2007118550731131</v>
+        <v>-0.1718700650853026</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4065791385910297</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.121778813078593</v>
+        <v>-1.056438740914247</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.665392678574265</v>
+        <v>-1.658885244233085</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.22225340460638</v>
+        <v>-0.1849725366531173</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4258410322868851</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.21859606203484</v>
+        <v>-1.139594319883861</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.698532850141711</v>
+        <v>-1.701636912382983</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2691107279879129</v>
+        <v>-0.2426123151860109</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4433573255863451</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.277811232457824</v>
+        <v>-1.193147423810301</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.691457457093167</v>
+        <v>-1.703968609184164</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.3182807675454451</v>
+        <v>-0.2890681253425439</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4591802303499855</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.362053087207074</v>
+        <v>-1.2650153709891</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.757819562921149</v>
+        <v>-1.753287573646969</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3384235910076215</v>
+        <v>-0.3072603245552663</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4743040691189659</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.439686764296871</v>
+        <v>-1.335179442045809</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.77882089466078</v>
+        <v>-1.785828395473096</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3859335558857906</v>
+        <v>-0.35431183433289</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.4886173815022808</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.46995648131759</v>
+        <v>-1.354506098625167</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.854404664230942</v>
+        <v>-1.871631771655573</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3882214512442445</v>
+        <v>-0.3521130019079815</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5028014187003976</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.490112445212585</v>
+        <v>-1.381274620323887</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.959232467037959</v>
+        <v>-1.980784966931908</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4193365361095998</v>
+        <v>-0.3825725251805188</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5159216150058032</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.522163420904213</v>
+        <v>-1.424166453090512</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.024912000383441</v>
+        <v>-2.055865019910706</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.397840248067151</v>
+        <v>-0.3547498487601626</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5275658538741809</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.546128650268388</v>
+        <v>-1.451685439507959</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.134655055088503</v>
+        <v>-2.168661035173857</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4665763920909508</v>
+        <v>-0.4192168121661453</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5367955870736085</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.536190102913573</v>
+        <v>-1.450696986950414</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.281730079430009</v>
+        <v>-2.315806141823727</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4807680595345833</v>
+        <v>-0.4364059583404134</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.543947575162348</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.548308502068115</v>
+        <v>-1.471153720752135</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.402804567368613</v>
+        <v>-2.439699982625875</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4970943172871244</v>
+        <v>-0.4526562935922272</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5485674456086563</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.59239027402883</v>
+        <v>-1.508418528176398</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.562160786226797</v>
+        <v>-2.601734659706832</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5625438930582887</v>
+        <v>-0.5123065583463021</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5511641401973509</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.598116582641374</v>
+        <v>-1.513394372070215</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.649159211771683</v>
+        <v>-2.696969946556579</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5766786186263757</v>
+        <v>-0.5300680433722065</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5511661459706524</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.576058176083926</v>
+        <v>-1.497793758218856</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.769058360997105</v>
+        <v>-2.816910707152593</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5776758314724664</v>
+        <v>-0.534040834227569</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5487968283789079</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.618332408508096</v>
+        <v>-1.550898627381387</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.893767638658026</v>
+        <v>-2.95066863285692</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5800951311591021</v>
+        <v>-0.5426551179639303</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.5431345330139528</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.502785662641672</v>
+        <v>-1.427928997020784</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.956022629206282</v>
+        <v>-3.01153219757454</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.6218875477132727</v>
+        <v>-0.5785562404712843</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5342437277314166</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.37875749741516</v>
+        <v>-1.320408135510085</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.003872785289633</v>
+        <v>-3.072256327699479</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.6120877049270935</v>
+        <v>-0.5706267192895592</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.5210817842010846</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.2654329447431</v>
+        <v>-1.209247374108751</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.083622072063157</v>
+        <v>-3.147751034336094</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.5721524695445588</v>
+        <v>-0.5402518788062947</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.5032323948329634</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.107162271640506</v>
+        <v>-1.072126957651061</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.120571509099784</v>
+        <v>-3.205246998132034</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5917010534337354</v>
+        <v>-0.5500298208711102</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4796876165853571</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.895610063556381</v>
+        <v>-0.8696504085000243</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.186043715616357</v>
+        <v>-3.270299440822471</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.592409176757826</v>
+        <v>-0.5497407313491103</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.4507278652795014</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6784206097932575</v>
+        <v>-0.6556774406811727</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.201966270071761</v>
+        <v>-3.304933971610961</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5492837362966558</v>
+        <v>-0.5109735344393025</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.4162038171303919</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.419860693374236</v>
+        <v>-0.4068896261346032</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.236671613192661</v>
+        <v>-3.348860248449995</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.5118116020434841</v>
+        <v>-0.4738211507180397</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3772010790388701</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1386247700553115</v>
+        <v>-0.1324458465345859</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.182008872717131</v>
+        <v>-3.292017656174738</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4756622713606756</v>
+        <v>-0.4374659532544131</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.3338239178059706</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1358409102660693</v>
+        <v>0.1478746266313388</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.155311893374865</v>
+        <v>-3.281659344993786</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4490470547115009</v>
+        <v>-0.4199293156345087</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2867741946423596</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4795449911545225</v>
+        <v>0.4721118863237063</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.105905326026606</v>
+        <v>-3.234664777091707</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.4050382851553309</v>
+        <v>-0.3718937334436125</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.2362745928491219</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7423711680951791</v>
+        <v>0.7464490824130872</v>
       </c>
       <c r="F85" t="n">
-        <v>-2.996327986779862</v>
+        <v>-3.141001962035869</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3649001030881599</v>
+        <v>-0.3298881498681693</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1835291756563601</v>
       </c>
       <c r="E86" t="n">
-        <v>1.014167880506379</v>
+        <v>1.003223360016927</v>
       </c>
       <c r="F86" t="n">
-        <v>-2.883041395358166</v>
+        <v>-3.051526564904757</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2804158803558189</v>
+        <v>-0.2545628088100986</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.1297516443246756</v>
       </c>
       <c r="E87" t="n">
-        <v>1.20492170353551</v>
+        <v>1.190972404074968</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.749059352271883</v>
+        <v>-2.928900775869562</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2462901763270099</v>
+        <v>-0.2192822067413808</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.07668609435932137</v>
       </c>
       <c r="E88" t="n">
-        <v>1.373236047455464</v>
+        <v>1.354808780500106</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.522018224015353</v>
+        <v>-2.694779874420216</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2445556391950104</v>
+        <v>-0.2170731539798359</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.02611043597015741</v>
       </c>
       <c r="E89" t="n">
-        <v>1.52852092221215</v>
+        <v>1.496513747963249</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.280569341197737</v>
+        <v>-2.460694744149097</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.1725723482170297</v>
+        <v>-0.1470200465780366</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.0193886721617383</v>
       </c>
       <c r="E90" t="n">
-        <v>1.649046432068572</v>
+        <v>1.611889668203037</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.996565166698449</v>
+        <v>-2.179045627220445</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1685265549571217</v>
+        <v>-0.1469864654719457</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.05732363834515507</v>
       </c>
       <c r="E91" t="n">
-        <v>1.712964417392373</v>
+        <v>1.657428568158479</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.712448568496162</v>
+        <v>-1.890694889554523</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.1110941032531371</v>
+        <v>-0.08337509024723547</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.08541399273770006</v>
       </c>
       <c r="E92" t="n">
-        <v>1.696382651223923</v>
+        <v>1.627675708161942</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.373434162075707</v>
+        <v>-1.53888535168939</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1226591441812249</v>
+        <v>-0.09540296642014133</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1020928148156989</v>
       </c>
       <c r="E93" t="n">
-        <v>1.736944247237458</v>
+        <v>1.657979006288751</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.03894590473707</v>
+        <v>-1.201666804420753</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1491122954923087</v>
+        <v>-0.1238461632791337</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1072000598277157</v>
       </c>
       <c r="E94" t="n">
-        <v>1.710942250786464</v>
+        <v>1.616977935799853</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.8170550961212203</v>
+        <v>-0.9597806371999092</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1468594412880366</v>
+        <v>-0.1286424212577688</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1022529163971537</v>
       </c>
       <c r="E95" t="n">
-        <v>1.712898715228282</v>
+        <v>1.611102702282037</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5475506592127471</v>
+        <v>-0.6675563919488059</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.2048189703528392</v>
+        <v>-0.1869844829223895</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.08925132722287797</v>
       </c>
       <c r="E96" t="n">
-        <v>1.633247251676849</v>
+        <v>1.520032202611607</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.2919020786869976</v>
+        <v>-0.3943930745245156</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2306589014657414</v>
+        <v>-0.2155167427149273</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.07077353698800243</v>
       </c>
       <c r="E97" t="n">
-        <v>1.510432386413882</v>
+        <v>1.403650309237183</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.1292512613116777</v>
+        <v>-0.1974880688883867</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3208285514640808</v>
+        <v>-0.3176091454236271</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.04793008300104767</v>
       </c>
       <c r="E98" t="n">
-        <v>1.418999794816907</v>
+        <v>1.326898501194295</v>
       </c>
       <c r="F98" t="n">
-        <v>0.02052047185373663</v>
+        <v>-0.03710762629442971</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3124186744604467</v>
+        <v>-0.3173930583061726</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.02284761169074543</v>
       </c>
       <c r="E99" t="n">
-        <v>1.27221239994931</v>
+        <v>1.181083498355243</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1149271814118931</v>
+        <v>0.07583293372972177</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3295552589034421</v>
+        <v>-0.3296574622698057</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.006729640104037265</v>
       </c>
       <c r="E100" t="n">
-        <v>1.114426462812897</v>
+        <v>1.021065147687832</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1823580424424205</v>
+        <v>0.1648929471789706</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3602513099667066</v>
+        <v>-0.3668478072414321</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.03801088450932245</v>
       </c>
       <c r="E101" t="n">
-        <v>0.9626311029934836</v>
+        <v>0.8669249506344184</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2307746971850438</v>
+        <v>0.21463678563623</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3134859696149009</v>
+        <v>-0.3286865302893514</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.07575994766137803</v>
       </c>
       <c r="E102" t="n">
-        <v>0.8499445913371503</v>
+        <v>0.7621694202079011</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2504473851619476</v>
+        <v>0.2340072436583157</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3359064680988949</v>
+        <v>-0.3465312380564375</v>
       </c>
     </row>
   </sheetData>
